--- a/empinfo/MinJi.xlsx
+++ b/empinfo/MinJi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,43 +498,88 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>printer</t>
+          <t>refrigerator</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>blinder</t>
+          <t>heater</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>clock</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>blinder</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>telephone</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>50</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>snack</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B10" t="n">
         <v>10</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
